--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Mon Jun 27 2022 17:45:08 GMT+0800 (中国标准时间)</v>
+        <v>Fri Oct 28 2022 19:05:20 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Fri Oct 28 2022 19:05:20 GMT+0800 (中国标准时间)</v>
+        <v>Thu Nov 03 2022 11:33:18 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Thu Nov 03 2022 11:33:18 GMT+0800 (中国标准时间)</v>
+        <v>Mon Nov 14 2022 19:12:26 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Mon Nov 14 2022 19:12:26 GMT+0800 (中国标准时间)</v>
+        <v>Mon Nov 21 2022 09:59:56 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Mon Nov 21 2022 09:59:56 GMT+0800 (中国标准时间)</v>
+        <v>Fri Apr 07 2023 14:46:57 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Fri Apr 07 2023 14:46:57 GMT+0800 (中国标准时间)</v>
+        <v>Sun May 21 2023 19:37:41 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Sun May 21 2023 19:37:41 GMT+0800 (中国标准时间)</v>
+        <v>Tue Jul 04 2023 10:23:52 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Tue Jul 04 2023 10:23:52 GMT+0800 (中国标准时间)</v>
+        <v>Fri Jul 14 2023 14:24:38 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Fri Jul 14 2023 14:24:38 GMT+0800 (中国标准时间)</v>
+        <v>Tue Jul 25 2023 12:22:47 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Tue Jul 25 2023 12:22:47 GMT+0800 (中国标准时间)</v>
+        <v>Wed Aug 02 2023 19:21:30 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Wed Aug 02 2023 19:21:30 GMT+0800 (中国标准时间)</v>
+        <v>Thu Oct 19 2023 10:23:17 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Thu Oct 19 2023 10:23:17 GMT+0800 (中国标准时间)</v>
+        <v>Tue Oct 24 2023 13:21:53 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -397,7 +397,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Tue Oct 24 2023 13:21:53 GMT+0800 (中国标准时间)</v>
+        <v>Tue Oct 24 2023 14:38:56 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -6,6 +6,28 @@
     <sheet name="系统信息表" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +419,7 @@
         <v>时间</v>
       </c>
       <c r="B2" t="str">
-        <v>Tue Oct 24 2023 14:38:56 GMT+0800 (中国标准时间)</v>
+        <v>Tue Oct 24 2023 16:54:53 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
     <row r="3">

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -1,47 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="系统信息表" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="pbottleRPA" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="追加新表单" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>项</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:39:38</t>
+  </si>
+  <si>
+    <t>显示器分辨率</t>
+  </si>
+  <si>
+    <t>{"w":1920,"h":1080,"ratio":1}</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz</t>
+  </si>
+  <si>
+    <t>项名</t>
+  </si>
+  <si>
+    <t>重新追加值</t>
+  </si>
+  <si>
+    <t>重新追加值2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +83,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,51 +424,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>项</v>
-      </c>
-      <c r="B1" t="str">
-        <v>值</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>时间</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Tue Oct 24 2023 16:54:53 GMT+0800 (中国标准时间)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>显示器分辨率</v>
-      </c>
-      <c r="B3" t="str">
-        <v>{"w":1920,"h":1080}</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CPU</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz</v>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -23,7 +23,7 @@
     <t>时间</t>
   </si>
   <si>
-    <t>2024-06-05 11:39:38</t>
+    <t>2024-06-05 13:23:58</t>
   </si>
   <si>
     <t>显示器分辨率</t>

--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -1,66 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet sheetId="1" name="pbottleRPA" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="追加新表单" state="visible" r:id="rId5"/>
+    <sheet name="系统信息表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>项</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>2024-06-05 13:23:58</t>
-  </si>
-  <si>
-    <t>显示器分辨率</t>
-  </si>
-  <si>
-    <t>{"w":1920,"h":1080,"ratio":1}</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz</t>
-  </si>
-  <si>
-    <t>项名</t>
-  </si>
-  <si>
-    <t>重新追加值</t>
-  </si>
-  <si>
-    <t>重新追加值2</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,23 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -424,74 +396,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>项</v>
+      </c>
+      <c r="B1" t="str">
+        <v>值</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>时间</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Wed Jun 05 2024 14:23:37 GMT+0800 (中国标准时间)</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>显示器分辨率</v>
+      </c>
+      <c r="B3" t="str">
+        <v>{"w":1920,"h":1080,"ratio":1}</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>CPU</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -1,47 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="系统信息表" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="pbottleRPA" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>项</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>2024-06-06 21:46:36</t>
+  </si>
+  <si>
+    <t>显示器分辨率</t>
+  </si>
+  <si>
+    <t>{"w":1920,"h":1080,"ratio":1}</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz</t>
+  </si>
+  <si>
+    <t>项名</t>
+  </si>
+  <si>
+    <t>重新追加值</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +79,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,51 +420,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>项</v>
-      </c>
-      <c r="B1" t="str">
-        <v>值</v>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>时间</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Wed Jun 05 2024 14:23:37 GMT+0800 (中国标准时间)</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>显示器分辨率</v>
-      </c>
-      <c r="B3" t="str">
-        <v>{"w":1920,"h":1080,"ratio":1}</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>CPU</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Intel(R) Core(TM) i7-9750H CPU @ 2.60GHz</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Excel测试表格.xlsx
+++ b/Excel测试表格.xlsx
@@ -22,7 +22,7 @@
     <t>时间</t>
   </si>
   <si>
-    <t>2024-06-06 21:46:36</t>
+    <t>2024-09-10 17:21:52</t>
   </si>
   <si>
     <t>显示器分辨率</t>
